--- a/Result/MT_10.xlsx
+++ b/Result/MT_10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MT_10" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -429,7 +429,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>(C2-$B$12)/100</f>
-        <v>17185508.870000001</v>
+        <f>(C2-$C$12)/100</f>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <f>E2</f>
         <v>29.39</v>
       </c>
       <c r="L2">
-        <f>((F2+G2)/$I$12)*100</f>
-        <v>96.170879607549224</v>
+        <f>((F2+G2)/$J$12)*100</f>
+        <v>95.792331184255175</v>
       </c>
       <c r="N2">
         <f>G2</f>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="0">(C3-$B$12)/100</f>
-        <v>17185508.850000001</v>
+        <f t="shared" ref="H3:H11" si="0">(C3-$C$12)/100</f>
+        <v>0.02</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="1">E3</f>
         <v>29.42</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="2">((F3+G3)/$I$12)*100</f>
-        <v>96.239013422361509</v>
+        <f t="shared" ref="L3:L11" si="2">((F3+G3)/$J$12)*100</f>
+        <v>95.860196810315585</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N11" si="3">G3</f>
@@ -580,7 +580,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>17185508.850000001</v>
+        <v>0.02</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>95.966478163112342</v>
+        <v>95.588734306073988</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>17185508.84</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>96.136812700143068</v>
+        <v>95.75839837122497</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>17185508.84</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>96.239013422361509</v>
+        <v>95.860196810315585</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>17185508.84</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>96.170879607549224</v>
+        <v>95.792331184255175</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>17185508.829999998</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>96.40934795939225</v>
+        <v>96.029860875466582</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>17185508.829999998</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>95.898344348300043</v>
+        <v>95.520868680013564</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>17185508.84</v>
+        <v>0.01</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>95.659875996457018</v>
+        <v>95.283338988802171</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>17185508.84</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>95.659875996457018</v>
+        <v>95.283338988802171</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="H12">
         <f>AVERAGE(H2:H11)</f>
-        <v>17185508.843000002</v>
+        <v>1.2999999999999998E-2</v>
       </c>
       <c r="I12">
         <f>AVERAGE(I2:I11)</f>
@@ -893,7 +893,7 @@
       </c>
       <c r="L12">
         <f>AVERAGE(L2:L11)</f>
-        <v>96.055052122368323</v>
+        <v>95.676959619952498</v>
       </c>
       <c r="M12">
         <f>_xlfn.STDEV.P(E2:E11)</f>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>(C13-$B$12)/100</f>
-        <v>17185431.039999999</v>
+        <f>(C13-$C$23)/100</f>
+        <v>0.94</v>
       </c>
       <c r="I13">
         <f>F13</f>
         <v>29.13</v>
       </c>
       <c r="L13">
-        <f>((F13+G13)/$I$12)*100</f>
-        <v>99.236901274102323</v>
+        <f>((F13+G13)/$J$23)*100</f>
+        <v>91.546197360150856</v>
       </c>
       <c r="N13">
         <f>G13</f>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H22" si="4">(C14-$B$12)/100</f>
-        <v>17185430.940000001</v>
+        <f t="shared" ref="H14:H22" si="4">(C14-$C$23)/100</f>
+        <v>0.84</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I22" si="5">F14</f>
         <v>29.14</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L22" si="6">((F14+G14)/$I$12)*100</f>
-        <v>99.270968181508479</v>
+        <f t="shared" ref="L14:L22" si="6">((F14+G14)/$J$23)*100</f>
+        <v>91.577624135763671</v>
       </c>
       <c r="N14">
         <f t="shared" ref="N14:N22" si="7">G14</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>17185430.73</v>
+        <v>0.63</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
-        <v>99.202834366696194</v>
+        <v>91.514770584538027</v>
       </c>
       <c r="N15">
         <f t="shared" si="7"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>17185430.100000001</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>99.202834366696194</v>
+        <v>91.514770584538027</v>
       </c>
       <c r="N16">
         <f t="shared" si="7"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>17185430.210000001</v>
+        <v>0.11</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>99.305035088914622</v>
+        <v>91.609050911376485</v>
       </c>
       <c r="N17">
         <f t="shared" si="7"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>17185430.309999999</v>
+        <v>0.21</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>103.05239490359064</v>
+        <v>95.065996228786929</v>
       </c>
       <c r="N18">
         <f t="shared" si="7"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>17185430.420000002</v>
+        <v>0.32</v>
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>99.168767459290024</v>
+        <v>91.483343808925198</v>
       </c>
       <c r="N19">
         <f t="shared" si="7"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="4"/>
-        <v>17185430.52</v>
+        <v>0.42</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>99.202834366696194</v>
+        <v>91.514770584538027</v>
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>17185430.620000001</v>
+        <v>0.52</v>
       </c>
       <c r="I21">
         <f t="shared" si="5"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>99.339101996320764</v>
+        <v>91.640477686989314</v>
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>17185430.829999998</v>
+        <v>0.73</v>
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>99.134700551883896</v>
+        <v>91.451917033312384</v>
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H23">
         <f>AVERAGE(H13:H22)</f>
-        <v>17185430.572000004</v>
+        <v>0.47199999999999986</v>
       </c>
       <c r="I23">
         <f>AVERAGE(I13:I22)</f>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="L23">
         <f>AVERAGE(L13:L22)</f>
-        <v>99.611637255569946</v>
+        <v>91.891891891891902</v>
       </c>
       <c r="M23">
         <f>_xlfn.STDEV.P(E13:E22)</f>
@@ -1353,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>(C24-$B$12)/100</f>
-        <v>17185171.18</v>
+        <f>(C24-$C$34)/100</f>
+        <v>0</v>
       </c>
       <c r="I24">
         <f>E24</f>
         <v>2.57</v>
       </c>
       <c r="L24">
-        <f>((F24+G24)/$I$12)*100</f>
-        <v>8.6189275737548527</v>
+        <f>((F24+G24)/$J$34)*100</f>
+        <v>9.5688350983358532</v>
       </c>
       <c r="N24">
         <f>G24</f>
@@ -1392,16 +1392,16 @@
         <v>0.01</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H33" si="8">(C25-$B$12)/100</f>
-        <v>17185173.75</v>
+        <f t="shared" ref="H25:H33" si="8">(C25-$C$34)/100</f>
+        <v>2.57</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:I33" si="9">E25</f>
         <v>2.69</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L33" si="10">((F25+G25)/$I$12)*100</f>
-        <v>9.0617973700347463</v>
+        <f t="shared" ref="L25:L33" si="10">((F25+G25)/$J$34)*100</f>
+        <v>10.060514372163388</v>
       </c>
       <c r="N25">
         <f t="shared" ref="N25:N33" si="11">G25</f>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="8"/>
-        <v>17185176.440000001</v>
+        <v>5.26</v>
       </c>
       <c r="I26">
         <f t="shared" si="9"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="10"/>
-        <v>9.2321319070654759</v>
+        <v>10.249621785173977</v>
       </c>
       <c r="N26">
         <f t="shared" si="11"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="8"/>
-        <v>17185179.16</v>
+        <v>7.98</v>
       </c>
       <c r="I27">
         <f t="shared" si="9"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="10"/>
-        <v>8.9936635552224562</v>
+        <v>9.9848714069591527</v>
       </c>
       <c r="N27">
         <f t="shared" si="11"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="8"/>
-        <v>17185181.800000001</v>
+        <v>10.62</v>
       </c>
       <c r="I28">
         <f t="shared" si="9"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="10"/>
-        <v>8.9936635552224562</v>
+        <v>9.9848714069591527</v>
       </c>
       <c r="N28">
         <f t="shared" si="11"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
-        <v>17185184.449999999</v>
+        <v>13.27</v>
       </c>
       <c r="I29">
         <f t="shared" si="9"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="10"/>
-        <v>8.9936635552224562</v>
+        <v>9.9848714069591527</v>
       </c>
       <c r="N29">
         <f t="shared" si="11"/>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>17185187.100000001</v>
+        <v>15.92</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="10"/>
-        <v>8.8914628330040184</v>
+        <v>9.8714069591527984</v>
       </c>
       <c r="N30">
         <f t="shared" si="11"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="8"/>
-        <v>17185189.710000001</v>
+        <v>18.53</v>
       </c>
       <c r="I31">
         <f t="shared" si="9"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>8.9936635552224562</v>
+        <v>9.9848714069591527</v>
       </c>
       <c r="N31">
         <f t="shared" si="11"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="8"/>
-        <v>17185192.359999999</v>
+        <v>21.18</v>
       </c>
       <c r="I32">
         <f t="shared" si="9"/>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="10"/>
-        <v>9.0617973700347463</v>
+        <v>10.060514372163388</v>
       </c>
       <c r="N32">
         <f t="shared" si="11"/>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="8"/>
-        <v>17185195.010000002</v>
+        <v>23.83</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="10"/>
-        <v>8.7551952033794365</v>
+        <v>9.7201210287443267</v>
       </c>
       <c r="N33">
         <f t="shared" si="11"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="H34">
         <f>AVERAGE(H24:H33)</f>
-        <v>17185183.095999997</v>
+        <v>11.916</v>
       </c>
       <c r="I34">
         <f>AVERAGE(I24:I33)</f>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L34">
         <f>AVERAGE(L24:L33)</f>
-        <v>8.9595966478163085</v>
+        <v>9.9470499243570352</v>
       </c>
       <c r="M34">
         <f>_xlfn.STDEV.P(E24:E33)</f>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>(C35-$B$12)/100</f>
-        <v>17185347.460000001</v>
+        <f>(C35-$C$45)/100</f>
+        <v>0.04</v>
       </c>
       <c r="I35">
         <f>E35</f>
         <v>29.1</v>
       </c>
       <c r="L35">
-        <f>((F35+G35)/$I$12)*100</f>
-        <v>95.046671663146412</v>
+        <f>((F35+G35)/$J$45)*100</f>
+        <v>95.51523450872989</v>
       </c>
       <c r="N35">
         <f>G35</f>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H44" si="12">(C36-$B$12)/100</f>
-        <v>17185347.449999999</v>
+        <f t="shared" ref="H36:H44" si="12">(C36-$C$45)/100</f>
+        <v>0.03</v>
       </c>
       <c r="I36">
         <f t="shared" ref="I36:I44" si="13">E36</f>
         <v>29.07</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L44" si="14">((F36+G36)/$I$12)*100</f>
-        <v>94.910404033521829</v>
+        <f t="shared" ref="L36:L44" si="14">((F36+G36)/$J$45)*100</f>
+        <v>95.378295104416281</v>
       </c>
       <c r="N36">
         <f t="shared" ref="N36:N44" si="15">G36</f>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="12"/>
-        <v>17185347.440000001</v>
+        <v>0.02</v>
       </c>
       <c r="I37">
         <f t="shared" si="13"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="14"/>
-        <v>95.01260475574027</v>
+        <v>95.480999657651495</v>
       </c>
       <c r="N37">
         <f t="shared" si="15"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="12"/>
-        <v>17185347.440000001</v>
+        <v>0.02</v>
       </c>
       <c r="I38">
         <f t="shared" si="13"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="14"/>
-        <v>95.148872385364854</v>
+        <v>95.617939061965075</v>
       </c>
       <c r="N38">
         <f t="shared" si="15"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="12"/>
-        <v>17185347.43</v>
+        <v>0.01</v>
       </c>
       <c r="I39">
         <f t="shared" si="13"/>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="14"/>
-        <v>94.84227021870953</v>
+        <v>95.309825402259492</v>
       </c>
       <c r="N39">
         <f t="shared" si="15"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="12"/>
-        <v>17185347.420000002</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <f t="shared" si="13"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="14"/>
-        <v>95.353273829801722</v>
+        <v>95.823348168435459</v>
       </c>
       <c r="N40">
         <f t="shared" si="15"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="12"/>
-        <v>17185347.420000002</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" si="13"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="14"/>
-        <v>95.217006200177138</v>
+        <v>95.686408764121865</v>
       </c>
       <c r="N41">
         <f t="shared" si="15"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="12"/>
-        <v>17185347.420000002</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="13"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="14"/>
-        <v>95.114805477958711</v>
+        <v>95.583704210886694</v>
       </c>
       <c r="N42">
         <f t="shared" si="15"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="12"/>
-        <v>17185347.420000002</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f t="shared" si="13"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="14"/>
-        <v>95.31920692239558</v>
+        <v>95.789113317357064</v>
       </c>
       <c r="N43">
         <f t="shared" si="15"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="12"/>
-        <v>17185347.420000002</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f t="shared" si="13"/>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="14"/>
-        <v>94.944470940927971</v>
+        <v>95.412529955494691</v>
       </c>
       <c r="N44">
         <f t="shared" si="15"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="H45">
         <f>AVERAGE(H35:H44)</f>
-        <v>17185347.432000004</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I45">
         <f>AVERAGE(I35:I44)</f>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L45">
         <f>AVERAGE(L35:L44)</f>
-        <v>95.090958642774396</v>
+        <v>95.559739815131806</v>
       </c>
       <c r="M45">
         <f>_xlfn.STDEV.P(E35:E44)</f>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>(C46-$B$12)/100</f>
-        <v>17185268.5</v>
+        <f>(C46-$C$56)/100</f>
+        <v>0</v>
       </c>
       <c r="I46">
         <f>E46</f>
         <v>26.34</v>
       </c>
       <c r="L46">
-        <f>((F46+G46)/$I$12)*100</f>
-        <v>87.551952033794365</v>
+        <f>((F46+G46)/$J$56)*100</f>
+        <v>95.645701525865263</v>
       </c>
       <c r="N46">
         <f>G46</f>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H55" si="16">(C47-$B$12)/100</f>
-        <v>17185268.600000001</v>
+        <f t="shared" ref="H47:H55" si="16">(C47-$C$56)/100</f>
+        <v>0.1</v>
       </c>
       <c r="I47">
         <f t="shared" ref="I47:I55" si="17">E47</f>
         <v>26.32</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:L55" si="18">((F47+G47)/$I$12)*100</f>
-        <v>87.517885126388222</v>
+        <f t="shared" ref="L47:L55" si="18">((F47+G47)/$J$56)*100</f>
+        <v>95.608485299590612</v>
       </c>
       <c r="N47">
         <f t="shared" ref="N47:N55" si="19">G47</f>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="16"/>
-        <v>17185268.699999999</v>
+        <v>0.2</v>
       </c>
       <c r="I48">
         <f t="shared" si="17"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="18"/>
-        <v>87.449751311575923</v>
+        <v>95.534052847041323</v>
       </c>
       <c r="N48">
         <f t="shared" si="19"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="16"/>
-        <v>17185268.800000001</v>
+        <v>0.3</v>
       </c>
       <c r="I49">
         <f t="shared" si="17"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="18"/>
-        <v>87.211282959732912</v>
+        <v>95.273539263118721</v>
       </c>
       <c r="N49">
         <f t="shared" si="19"/>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="16"/>
-        <v>17185268.899999999</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
         <f t="shared" si="17"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="18"/>
-        <v>87.00688151529603</v>
+        <v>95.050241905470784</v>
       </c>
       <c r="N50">
         <f t="shared" si="19"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="16"/>
-        <v>17185269.010000002</v>
+        <v>0.51</v>
       </c>
       <c r="I51">
         <f t="shared" si="17"/>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="18"/>
-        <v>86.802480070859161</v>
+        <v>94.826944547822848</v>
       </c>
       <c r="N51">
         <f t="shared" si="19"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="16"/>
-        <v>17185269.109999999</v>
+        <v>0.61</v>
       </c>
       <c r="I52">
         <f t="shared" si="17"/>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="18"/>
-        <v>86.734346256046862</v>
+        <v>94.752512095273545</v>
       </c>
       <c r="N52">
         <f t="shared" si="19"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="16"/>
-        <v>17185269.210000001</v>
+        <v>0.71</v>
       </c>
       <c r="I53">
         <f t="shared" si="17"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="18"/>
-        <v>86.598078626422293</v>
+        <v>94.603647190174925</v>
       </c>
       <c r="N53">
         <f t="shared" si="19"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="16"/>
-        <v>17185269.309999999</v>
+        <v>0.81</v>
       </c>
       <c r="I54">
         <f t="shared" si="17"/>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="18"/>
-        <v>86.495877904203851</v>
+        <v>94.491998511350943</v>
       </c>
       <c r="N54">
         <f t="shared" si="19"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H55">
         <f t="shared" si="16"/>
-        <v>17185269.41</v>
+        <v>0.91</v>
       </c>
       <c r="I55">
         <f t="shared" si="17"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="18"/>
-        <v>86.257409552360826</v>
+        <v>94.231484927428355</v>
       </c>
       <c r="N55">
         <f t="shared" si="19"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="H56">
         <f>AVERAGE(H46:H55)</f>
-        <v>17185268.955000002</v>
+        <v>0.45499999999999996</v>
       </c>
       <c r="I56">
         <f>AVERAGE(I46:I55)</f>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="L56">
         <f>AVERAGE(L46:L55)</f>
-        <v>86.962594535668046</v>
+        <v>95.001860811313733</v>
       </c>
       <c r="M56">
         <f>_xlfn.STDEV.P(E46:E55)</f>

--- a/Result/MT_10.xlsx
+++ b/Result/MT_10.xlsx
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +509,8 @@
         <v>29.39</v>
       </c>
       <c r="L2">
-        <f>((F2+G2)/$J$12)*100</f>
-        <v>95.792331184255175</v>
+        <f>((F2+G2)/E2)*100</f>
+        <v>96.053079278666203</v>
       </c>
       <c r="N2">
         <f>G2</f>
@@ -548,8 +548,8 @@
         <v>29.42</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="2">((F3+G3)/$J$12)*100</f>
-        <v>95.860196810315585</v>
+        <f t="shared" ref="L3:L55" si="2">((F3+G3)/E3)*100</f>
+        <v>96.023113528212093</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N11" si="3">G3</f>
@@ -588,7 +588,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>95.588734306073988</v>
+        <v>96.077762619372436</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>95.75839837122497</v>
+        <v>96.051735874744722</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>95.860196810315585</v>
+        <v>96.055763345800756</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>95.792331184255175</v>
+        <v>96.020408163265316</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>95.520868680013564</v>
+        <v>96.075085324232077</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>95.283338988802171</v>
+        <v>96.098562628336765</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>95.283338988802171</v>
+        <v>96.065685939103645</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="L12">
         <f>AVERAGE(L2:L11)</f>
-        <v>95.676959619952498</v>
+        <v>96.055105757720057</v>
       </c>
       <c r="M12">
         <f>_xlfn.STDEV.P(E2:E11)</f>
@@ -935,8 +935,8 @@
         <v>29.13</v>
       </c>
       <c r="L13">
-        <f>((F13+G13)/$J$23)*100</f>
-        <v>91.546197360150856</v>
+        <f t="shared" si="2"/>
+        <v>95.633617859487856</v>
       </c>
       <c r="N13">
         <f>G13</f>
@@ -974,11 +974,11 @@
         <v>29.14</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L22" si="6">((F14+G14)/$J$23)*100</f>
-        <v>91.577624135763671</v>
+        <f t="shared" si="2"/>
+        <v>95.635050869707911</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N22" si="7">G14</f>
+        <f t="shared" ref="N14:N22" si="6">G14</f>
         <v>0</v>
       </c>
     </row>
@@ -1013,11 +1013,11 @@
         <v>29.12</v>
       </c>
       <c r="L15">
+        <f t="shared" si="2"/>
+        <v>95.632183908045988</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="6"/>
-        <v>91.514770584538027</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         <v>29.11</v>
       </c>
       <c r="L16">
+        <f t="shared" si="2"/>
+        <v>95.663600525624176</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="6"/>
-        <v>91.514770584538027</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1091,11 +1091,11 @@
         <v>29.15</v>
       </c>
       <c r="L17">
+        <f t="shared" si="2"/>
+        <v>95.667870036101078</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
-        <v>91.609050911376485</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1130,11 +1130,11 @@
         <v>30.25</v>
       </c>
       <c r="L18">
+        <f t="shared" si="2"/>
+        <v>95.697564062005696</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
-        <v>95.065996228786929</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1169,11 +1169,11 @@
         <v>29.11</v>
       </c>
       <c r="L19">
+        <f t="shared" si="2"/>
+        <v>95.693622616699543</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="6"/>
-        <v>91.483343808925198</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1208,11 +1208,11 @@
         <v>29.12</v>
       </c>
       <c r="L20">
+        <f t="shared" si="2"/>
+        <v>95.663600525624176</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="6"/>
-        <v>91.514770584538027</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
         <v>29.16</v>
       </c>
       <c r="L21">
+        <f t="shared" si="2"/>
+        <v>95.606557377049185</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="6"/>
-        <v>91.640477686989314</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1286,11 +1286,11 @@
         <v>29.1</v>
       </c>
       <c r="L22">
+        <f t="shared" si="2"/>
+        <v>95.629313177785093</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="6"/>
-        <v>91.451917033312384</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="L23">
         <f>AVERAGE(L13:L22)</f>
-        <v>91.891891891891902</v>
+        <v>95.652298095813052</v>
       </c>
       <c r="M23">
         <f>_xlfn.STDEV.P(E13:E22)</f>
@@ -1361,8 +1361,8 @@
         <v>2.57</v>
       </c>
       <c r="L24">
-        <f>((F24+G24)/$J$34)*100</f>
-        <v>9.5688350983358532</v>
+        <f t="shared" si="2"/>
+        <v>98.443579766536956</v>
       </c>
       <c r="N24">
         <f>G24</f>
@@ -1392,19 +1392,19 @@
         <v>0.01</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H33" si="8">(C25-$C$34)/100</f>
+        <f t="shared" ref="H25:H33" si="7">(C25-$C$34)/100</f>
         <v>2.57</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I33" si="9">E25</f>
+        <f t="shared" ref="I25:I33" si="8">E25</f>
         <v>2.69</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L33" si="10">((F25+G25)/$J$34)*100</f>
-        <v>10.060514372163388</v>
+        <f t="shared" si="2"/>
+        <v>98.884758364312248</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N33" si="11">G25</f>
+        <f t="shared" ref="N25:N33" si="9">G25</f>
         <v>0.01</v>
       </c>
     </row>
@@ -1431,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <f t="shared" si="7"/>
+        <v>5.26</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="8"/>
-        <v>5.26</v>
-      </c>
-      <c r="I26">
+        <v>2.72</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>99.632352941176464</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="9"/>
-        <v>2.72</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="10"/>
-        <v>10.249621785173977</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1470,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <f t="shared" si="7"/>
+        <v>7.98</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="8"/>
-        <v>7.98</v>
-      </c>
-      <c r="I27">
+        <v>2.64</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="9"/>
-        <v>2.64</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="10"/>
-        <v>9.9848714069591527</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1509,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <f t="shared" si="7"/>
+        <v>10.62</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="8"/>
-        <v>10.62</v>
-      </c>
-      <c r="I28">
+        <v>2.65</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>99.622641509433976</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="10"/>
-        <v>9.9848714069591527</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1548,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <f t="shared" si="7"/>
+        <v>13.27</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="8"/>
-        <v>13.27</v>
-      </c>
-      <c r="I29">
+        <v>2.65</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>99.622641509433976</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="10"/>
-        <v>9.9848714069591527</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <f t="shared" si="7"/>
+        <v>15.92</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="8"/>
-        <v>15.92</v>
-      </c>
-      <c r="I30">
+        <v>2.61</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="9"/>
-        <v>2.61</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="10"/>
-        <v>9.8714069591527984</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1626,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <f t="shared" si="7"/>
+        <v>18.53</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="8"/>
-        <v>18.53</v>
-      </c>
-      <c r="I31">
+        <v>2.65</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>99.622641509433976</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="10"/>
-        <v>9.9848714069591527</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1665,19 +1665,19 @@
         <v>0.01</v>
       </c>
       <c r="H32">
+        <f t="shared" si="7"/>
+        <v>21.18</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="8"/>
-        <v>21.18</v>
-      </c>
-      <c r="I32">
+        <v>2.65</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>100.37735849056604</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="10"/>
-        <v>10.060514372163388</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <f t="shared" si="7"/>
+        <v>23.83</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="8"/>
-        <v>23.83</v>
-      </c>
-      <c r="I33">
+        <v>2.61</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>98.467432950191565</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="9"/>
-        <v>2.61</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="10"/>
-        <v>9.7201210287443267</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L34">
         <f>AVERAGE(L24:L33)</f>
-        <v>9.9470499243570352</v>
+        <v>99.467340704108523</v>
       </c>
       <c r="M34">
         <f>_xlfn.STDEV.P(E24:E33)</f>
@@ -1787,8 +1787,8 @@
         <v>29.1</v>
       </c>
       <c r="L35">
-        <f>((F35+G35)/$J$45)*100</f>
-        <v>95.51523450872989</v>
+        <f t="shared" si="2"/>
+        <v>95.876288659793801</v>
       </c>
       <c r="N35">
         <f>G35</f>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H44" si="12">(C36-$C$45)/100</f>
+        <f t="shared" ref="H36:H44" si="10">(C36-$C$45)/100</f>
         <v>0.03</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I44" si="13">E36</f>
+        <f t="shared" ref="I36:I44" si="11">E36</f>
         <v>29.07</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L44" si="14">((F36+G36)/$J$45)*100</f>
-        <v>95.378295104416281</v>
+        <f t="shared" si="2"/>
+        <v>95.837633298933611</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N44" si="15">G36</f>
+        <f t="shared" ref="N36:N44" si="12">G36</f>
         <v>0</v>
       </c>
     </row>
@@ -1857,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>29.1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>95.841924398625423</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="13"/>
-        <v>29.1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="14"/>
-        <v>95.480999657651495</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>29.14</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>95.847632120796149</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="13"/>
-        <v>29.14</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="14"/>
-        <v>95.617939061965075</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>29.06</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>95.801789401238821</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="12"/>
-        <v>0.01</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="13"/>
-        <v>29.06</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="14"/>
-        <v>95.309825402259492</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>29.21</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>95.823348168435459</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>29.21</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="14"/>
-        <v>95.823348168435459</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>29.17</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>95.817620843332179</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="13"/>
-        <v>29.17</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="14"/>
-        <v>95.686408764121865</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>29.13</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>95.846206659800899</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="13"/>
-        <v>29.13</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="14"/>
-        <v>95.583704210886694</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2091,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="11"/>
+        <v>29.2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>95.821917808219183</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="13"/>
-        <v>29.2</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="14"/>
-        <v>95.789113317357064</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2130,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="11"/>
+        <v>29.08</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>95.839064649243483</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="13"/>
-        <v>29.08</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="14"/>
-        <v>95.412529955494691</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L45">
         <f>AVERAGE(L35:L44)</f>
-        <v>95.559739815131806</v>
+        <v>95.835342600841898</v>
       </c>
       <c r="M45">
         <f>_xlfn.STDEV.P(E35:E44)</f>
@@ -2213,8 +2213,8 @@
         <v>26.34</v>
       </c>
       <c r="L46">
-        <f>((F46+G46)/$J$56)*100</f>
-        <v>95.645701525865263</v>
+        <f t="shared" si="2"/>
+        <v>97.570235383447226</v>
       </c>
       <c r="N46">
         <f>G46</f>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H55" si="16">(C47-$C$56)/100</f>
+        <f t="shared" ref="H47:H55" si="13">(C47-$C$56)/100</f>
         <v>0.1</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I55" si="17">E47</f>
+        <f t="shared" ref="I47:I55" si="14">E47</f>
         <v>26.32</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:L55" si="18">((F47+G47)/$J$56)*100</f>
-        <v>95.608485299590612</v>
+        <f t="shared" si="2"/>
+        <v>97.606382978723403</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47:N55" si="19">G47</f>
+        <f t="shared" ref="N47:N55" si="15">G47</f>
         <v>0</v>
       </c>
     </row>
@@ -2283,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.3</v>
       </c>
       <c r="L48">
-        <f t="shared" si="18"/>
-        <v>95.534052847041323</v>
+        <f t="shared" si="2"/>
+        <v>97.604562737642581</v>
       </c>
       <c r="N48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2322,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.23</v>
       </c>
       <c r="L49">
-        <f t="shared" si="18"/>
-        <v>95.273539263118721</v>
+        <f t="shared" si="2"/>
+        <v>97.598170034311863</v>
       </c>
       <c r="N49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="I50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.18</v>
       </c>
       <c r="L50">
-        <f t="shared" si="18"/>
-        <v>95.050241905470784</v>
+        <f t="shared" si="2"/>
+        <v>97.555385790679907</v>
       </c>
       <c r="N50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.51</v>
       </c>
       <c r="I51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.11</v>
       </c>
       <c r="L51">
-        <f t="shared" si="18"/>
-        <v>94.826944547822848</v>
+        <f t="shared" si="2"/>
+        <v>97.58713136729223</v>
       </c>
       <c r="N51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.61</v>
       </c>
       <c r="I52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.09</v>
       </c>
       <c r="L52">
-        <f t="shared" si="18"/>
-        <v>94.752512095273545</v>
+        <f t="shared" si="2"/>
+        <v>97.585281717133014</v>
       </c>
       <c r="N52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.71</v>
       </c>
       <c r="I53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.05</v>
       </c>
       <c r="L53">
-        <f t="shared" si="18"/>
-        <v>94.603647190174925</v>
+        <f t="shared" si="2"/>
+        <v>97.581573896353163</v>
       </c>
       <c r="N53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2517,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.81</v>
       </c>
       <c r="I54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>26.02</v>
       </c>
       <c r="L54">
-        <f t="shared" si="18"/>
-        <v>94.491998511350943</v>
+        <f t="shared" si="2"/>
+        <v>97.578785549577248</v>
       </c>
       <c r="N54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2556,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.91</v>
       </c>
       <c r="I55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>25.96</v>
       </c>
       <c r="L55">
-        <f t="shared" si="18"/>
-        <v>94.231484927428355</v>
+        <f t="shared" si="2"/>
+        <v>97.534668721109398</v>
       </c>
       <c r="N55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="L56">
         <f>AVERAGE(L46:L55)</f>
-        <v>95.001860811313733</v>
+        <v>97.580217817627002</v>
       </c>
       <c r="M56">
         <f>_xlfn.STDEV.P(E46:E55)</f>

--- a/Result/MT_10.xlsx
+++ b/Result/MT_10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>thread_id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>CPU Usage</t>
-  </si>
-  <si>
-    <t>Fairness</t>
   </si>
   <si>
     <t>Context Switch</t>
@@ -89,6 +86,18 @@
   <si>
     <t>RR_avg</t>
   </si>
+  <si>
+    <t>Fairness(QWT)</t>
+  </si>
+  <si>
+    <t>Fairness(RT)</t>
+  </si>
+  <si>
+    <t>Fairness(ET)</t>
+  </si>
+  <si>
+    <t>Elapsed Time</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,17 +435,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46:L56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -463,24 +478,33 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -508,18 +532,22 @@
         <f>E2</f>
         <v>29.39</v>
       </c>
-      <c r="L2">
+      <c r="J2">
+        <f>(D2-$C$12)/100</f>
+        <v>29.43</v>
+      </c>
+      <c r="M2">
         <f>((F2+G2)/E2)*100</f>
         <v>96.053079278666203</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <f>G2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -547,18 +575,22 @@
         <f t="shared" ref="I3:I11" si="1">E3</f>
         <v>29.42</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L55" si="2">((F3+G3)/E3)*100</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">(D3-$C$12)/100</f>
+        <v>29.44</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M55" si="3">((F3+G3)/E3)*100</f>
         <v>96.023113528212093</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="3">G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="4">G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -586,18 +618,22 @@
         <f t="shared" si="1"/>
         <v>29.32</v>
       </c>
-      <c r="L4">
+      <c r="J4">
         <f t="shared" si="2"/>
+        <v>29.34</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
         <v>96.077762619372436</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -625,18 +661,22 @@
         <f t="shared" si="1"/>
         <v>29.38</v>
       </c>
-      <c r="L5">
+      <c r="J5">
         <f t="shared" si="2"/>
+        <v>29.39</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
         <v>96.051735874744722</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -664,18 +704,22 @@
         <f t="shared" si="1"/>
         <v>29.41</v>
       </c>
-      <c r="L6">
+      <c r="J6">
         <f t="shared" si="2"/>
+        <v>29.42</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
         <v>96.055763345800756</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -703,18 +747,22 @@
         <f t="shared" si="1"/>
         <v>29.4</v>
       </c>
-      <c r="L7">
+      <c r="J7">
         <f t="shared" si="2"/>
+        <v>29.41</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
         <v>96.020408163265316</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -742,18 +790,22 @@
         <f t="shared" si="1"/>
         <v>29.47</v>
       </c>
-      <c r="L8">
+      <c r="J8">
         <f t="shared" si="2"/>
+        <v>29.47</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>96.029860875466582</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -781,18 +833,22 @@
         <f t="shared" si="1"/>
         <v>29.3</v>
       </c>
-      <c r="L9">
+      <c r="J9">
         <f t="shared" si="2"/>
+        <v>29.3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
         <v>96.075085324232077</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -820,18 +876,22 @@
         <f t="shared" si="1"/>
         <v>29.22</v>
       </c>
-      <c r="L10">
+      <c r="J10">
         <f t="shared" si="2"/>
+        <v>29.23</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
         <v>96.098562628336765</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -859,18 +919,22 @@
         <f t="shared" si="1"/>
         <v>29.23</v>
       </c>
-      <c r="L11">
+      <c r="J11">
         <f t="shared" si="2"/>
+        <v>29.24</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
         <v>96.065685939103645</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <f>MIN(C2:C11)</f>
@@ -884,29 +948,37 @@
         <f>AVERAGE(I2:I11)</f>
         <v>29.354000000000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>29.47</v>
       </c>
-      <c r="K12">
-        <f>100/J12</f>
+      <c r="L12">
+        <f>100/K12</f>
         <v>3.3932813030200206</v>
       </c>
-      <c r="L12">
-        <f>AVERAGE(L2:L11)</f>
+      <c r="M12">
+        <f>AVERAGE(M2:M11)</f>
         <v>96.055105757720057</v>
       </c>
-      <c r="M12">
+      <c r="N12">
+        <f>_xlfn.STDEV.P(H2:H11)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O12">
         <f>_xlfn.STDEV.P(E2:E11)</f>
         <v>7.9018985060553604E-2</v>
       </c>
-      <c r="N12">
-        <f>AVERAGE(N2:N11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f>_xlfn.STDEV.P(J2:J11)</f>
+        <v>8.0752708932889869E-2</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(Q2:Q11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -934,18 +1006,22 @@
         <f>F13</f>
         <v>29.13</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
+      <c r="J13">
+        <f>(D13-$C$23)/100</f>
+        <v>31.4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
         <v>95.633617859487856</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <f>G13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -966,25 +1042,29 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H22" si="4">(C14-$C$23)/100</f>
+        <f t="shared" ref="H14:H22" si="5">(C14-$C$23)/100</f>
         <v>0.84</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I22" si="5">F14</f>
+        <f t="shared" ref="I14:I22" si="6">F14</f>
         <v>29.14</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
+      <c r="J14">
+        <f t="shared" ref="J14:J22" si="7">(D14-$C$23)/100</f>
+        <v>31.31</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
         <v>95.635050869707911</v>
       </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N22" si="6">G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q22" si="8">G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1005,25 +1085,29 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.12</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>31.08</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
         <v>95.632183908045988</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1044,25 +1128,29 @@
         <v>0.01</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.11</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>30.44</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
         <v>95.663600525624176</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="6"/>
+      <c r="Q16">
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1083,25 +1171,29 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.15</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>30.58</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
         <v>95.667870036101078</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1122,25 +1214,29 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.25</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>31.82</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
         <v>95.697564062005696</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1161,25 +1257,29 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.11</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>30.74</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
         <v>95.693622616699543</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1200,25 +1300,29 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.12</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>30.86</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
         <v>95.663600525624176</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1239,25 +1343,29 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.16</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>31.02</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
         <v>95.606557377049185</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1278,25 +1386,29 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.1</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>31.16</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
         <v>95.629313177785093</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <f>MIN(C13:C22)</f>
@@ -1310,29 +1422,37 @@
         <f>AVERAGE(I13:I22)</f>
         <v>29.239000000000004</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>31.82</v>
       </c>
-      <c r="K23">
-        <f>100/J23</f>
+      <c r="L23">
+        <f>100/K23</f>
         <v>3.1426775612822122</v>
       </c>
-      <c r="L23">
-        <f>AVERAGE(L13:L22)</f>
+      <c r="M23">
+        <f>AVERAGE(M13:M22)</f>
         <v>95.652298095813052</v>
       </c>
-      <c r="M23">
+      <c r="N23">
+        <f>_xlfn.STDEV.P(H13:H22)</f>
+        <v>0.29942611776530126</v>
+      </c>
+      <c r="O23">
         <f>_xlfn.STDEV.P(E13:E22)</f>
         <v>0.347690954728477</v>
       </c>
-      <c r="N23">
-        <f>AVERAGE(N13:N22)</f>
+      <c r="P23">
+        <f>_xlfn.STDEV.P(J13:J22)</f>
+        <v>0.39003717771515062</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE(Q13:Q22)</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1360,18 +1480,22 @@
         <f>E24</f>
         <v>2.57</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
+      <c r="J24">
+        <f>(D24-$C$34)/100</f>
+        <v>2.57</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
         <v>98.443579766536956</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <f>G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1392,25 +1516,29 @@
         <v>0.01</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H33" si="7">(C25-$C$34)/100</f>
+        <f t="shared" ref="H25:H33" si="9">(C25-$C$34)/100</f>
         <v>2.57</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I33" si="8">E25</f>
+        <f t="shared" ref="I25:I33" si="10">E25</f>
         <v>2.69</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
+      <c r="J25">
+        <f t="shared" ref="J25:J33" si="11">(D25-$C$34)/100</f>
+        <v>5.26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
         <v>98.884758364312248</v>
       </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N33" si="9">G25</f>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q33" si="12">G25</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1431,25 +1559,29 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.26</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.72</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>7.98</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
         <v>99.632352941176464</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1470,25 +1602,29 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.98</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.64</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>10.62</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1509,25 +1645,29 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.62</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.65</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="2"/>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>13.27</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
         <v>99.622641509433976</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1548,25 +1688,29 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.27</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.65</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
+      <c r="J29">
+        <f t="shared" si="11"/>
+        <v>15.92</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
         <v>99.622641509433976</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1587,25 +1731,29 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.92</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.61</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
+      <c r="J30">
+        <f t="shared" si="11"/>
+        <v>18.53</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1626,25 +1774,29 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18.53</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.65</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="2"/>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>21.18</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
         <v>99.622641509433976</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1665,25 +1817,29 @@
         <v>0.01</v>
       </c>
       <c r="H32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.18</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.65</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>23.83</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
         <v>100.37735849056604</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="9"/>
+      <c r="Q32">
+        <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -1704,25 +1860,29 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.83</v>
       </c>
       <c r="I33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.61</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="2"/>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>26.44</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
         <v>98.467432950191565</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <f>MIN(C24:C33)</f>
@@ -1736,29 +1896,37 @@
         <f>AVERAGE(I24:I33)</f>
         <v>2.6439999999999997</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>26.44</v>
       </c>
-      <c r="K34">
-        <f>100/J34</f>
+      <c r="L34">
+        <f>100/K34</f>
         <v>3.7821482602118</v>
       </c>
-      <c r="L34">
-        <f>AVERAGE(L24:L33)</f>
+      <c r="M34">
+        <f>AVERAGE(M24:M33)</f>
         <v>99.467340704108523</v>
       </c>
-      <c r="M34">
+      <c r="N34">
+        <f>_xlfn.STDEV.P(H24:H33)</f>
+        <v>7.6170088617514411</v>
+      </c>
+      <c r="O34">
         <f>_xlfn.STDEV.P(E24:E33)</f>
         <v>3.9799497484264874E-2</v>
       </c>
-      <c r="N34">
-        <f>AVERAGE(N24:N33)</f>
+      <c r="P34">
+        <f>_xlfn.STDEV.P(J24:J33)</f>
+        <v>7.6107581751097513</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(Q24:Q33)</f>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1786,18 +1954,22 @@
         <f>E35</f>
         <v>29.1</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="2"/>
+      <c r="J35">
+        <f>(D35-$C$45)/100</f>
+        <v>29.14</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
         <v>95.876288659793801</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <f>G35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1818,25 +1990,29 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H44" si="10">(C36-$C$45)/100</f>
+        <f t="shared" ref="H36:H44" si="13">(C36-$C$45)/100</f>
         <v>0.03</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I44" si="11">E36</f>
+        <f t="shared" ref="I36:I44" si="14">E36</f>
         <v>29.07</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="2"/>
+      <c r="J36">
+        <f t="shared" ref="J36:J44" si="15">(D36-$C$45)/100</f>
+        <v>29.1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
         <v>95.837633298933611</v>
       </c>
-      <c r="N36">
-        <f t="shared" ref="N36:N44" si="12">G36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" ref="Q36:Q44" si="16">G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1857,25 +2033,29 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.02</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.1</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="2"/>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>29.12</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
         <v>95.841924398625423</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1896,25 +2076,29 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.02</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.14</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="2"/>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>29.16</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
         <v>95.847632120796149</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1935,25 +2119,29 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.06</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="2"/>
+      <c r="J39">
+        <f t="shared" si="15"/>
+        <v>29.07</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
         <v>95.801789401238821</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1974,25 +2162,29 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.21</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="2"/>
+      <c r="J40">
+        <f t="shared" si="15"/>
+        <v>29.21</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
         <v>95.823348168435459</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2013,25 +2205,29 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.17</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="2"/>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>29.17</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
         <v>95.817620843332179</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -2052,25 +2248,29 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.13</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="2"/>
+      <c r="J42">
+        <f t="shared" si="15"/>
+        <v>29.13</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
         <v>95.846206659800899</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -2091,25 +2291,29 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.2</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="2"/>
+      <c r="J43">
+        <f t="shared" si="15"/>
+        <v>29.2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
         <v>95.821917808219183</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -2130,25 +2334,29 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.08</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="2"/>
+      <c r="J44">
+        <f t="shared" si="15"/>
+        <v>29.08</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
         <v>95.839064649243483</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45">
         <f>MIN(C35:C44)</f>
@@ -2162,29 +2370,37 @@
         <f>AVERAGE(I35:I44)</f>
         <v>29.125999999999998</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>29.21</v>
       </c>
-      <c r="K45">
-        <f>100/J45</f>
+      <c r="L45">
+        <f>100/K45</f>
         <v>3.423485107839781</v>
       </c>
-      <c r="L45">
-        <f>AVERAGE(L35:L44)</f>
+      <c r="M45">
+        <f>AVERAGE(M35:M44)</f>
         <v>95.835342600841898</v>
       </c>
-      <c r="M45">
+      <c r="N45">
+        <f>_xlfn.STDEV.P(H35:H44)</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="O45">
         <f>_xlfn.STDEV.P(E35:E44)</f>
         <v>5.063595560468899E-2</v>
       </c>
-      <c r="N45">
-        <f>AVERAGE(N35:N44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f>_xlfn.STDEV.P(J35:J44)</f>
+        <v>4.5122056690714119E-2</v>
+      </c>
+      <c r="Q45">
+        <f>AVERAGE(Q35:Q44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2212,18 +2428,22 @@
         <f>E46</f>
         <v>26.34</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="2"/>
+      <c r="J46">
+        <f>(D46-$C$56)/100</f>
+        <v>26.34</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
         <v>97.570235383447226</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <f>G46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2244,25 +2464,29 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H55" si="13">(C47-$C$56)/100</f>
+        <f t="shared" ref="H47:H55" si="17">(C47-$C$56)/100</f>
         <v>0.1</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I55" si="14">E47</f>
+        <f t="shared" ref="I47:I55" si="18">E47</f>
         <v>26.32</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="2"/>
+      <c r="J47">
+        <f t="shared" ref="J47:J55" si="19">(D47-$C$56)/100</f>
+        <v>26.42</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
         <v>97.606382978723403</v>
       </c>
-      <c r="N47">
-        <f t="shared" ref="N47:N55" si="15">G47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" ref="Q47:Q55" si="20">G47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2283,25 +2507,29 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.3</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="2"/>
+      <c r="J48">
+        <f t="shared" si="19"/>
+        <v>26.5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
         <v>97.604562737642581</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2322,25 +2550,29 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.23</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="2"/>
+      <c r="J49">
+        <f t="shared" si="19"/>
+        <v>26.53</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
         <v>97.598170034311863</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -2361,25 +2593,29 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.18</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="2"/>
+      <c r="J50">
+        <f t="shared" si="19"/>
+        <v>26.58</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
         <v>97.555385790679907</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2400,25 +2636,29 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.51</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.11</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="2"/>
+      <c r="J51">
+        <f t="shared" si="19"/>
+        <v>26.62</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
         <v>97.58713136729223</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2439,25 +2679,29 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.61</v>
       </c>
       <c r="I52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.09</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="2"/>
+      <c r="J52">
+        <f t="shared" si="19"/>
+        <v>26.7</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
         <v>97.585281717133014</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -2478,25 +2722,29 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.71</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.05</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="2"/>
+      <c r="J53">
+        <f t="shared" si="19"/>
+        <v>26.76</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
         <v>97.581573896353163</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -2517,25 +2765,29 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.81</v>
       </c>
       <c r="I54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.02</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="2"/>
+      <c r="J54">
+        <f t="shared" si="19"/>
+        <v>26.83</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
         <v>97.578785549577248</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -2556,25 +2808,29 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.91</v>
       </c>
       <c r="I55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25.96</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="2"/>
+      <c r="J55">
+        <f t="shared" si="19"/>
+        <v>26.87</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
         <v>97.534668721109398</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <f>MIN(C46:C55)</f>
@@ -2588,23 +2844,31 @@
         <f>AVERAGE(I46:I55)</f>
         <v>26.160000000000004</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>26.87</v>
       </c>
-      <c r="K56">
-        <f>100/J56</f>
+      <c r="L56">
+        <f>100/K56</f>
         <v>3.721622627465575</v>
       </c>
-      <c r="L56">
-        <f>AVERAGE(L46:L55)</f>
+      <c r="M56">
+        <f>AVERAGE(M46:M55)</f>
         <v>97.580217817627002</v>
       </c>
-      <c r="M56">
+      <c r="N56">
+        <f>_xlfn.STDEV.P(H46:H55)</f>
+        <v>0.29159046623646678</v>
+      </c>
+      <c r="O56">
         <f>_xlfn.STDEV.P(E46:E55)</f>
         <v>0.12727922061357855</v>
       </c>
-      <c r="N56">
-        <f>AVERAGE(N46:N55)</f>
+      <c r="P56">
+        <f>_xlfn.STDEV.P(J46:J55)</f>
+        <v>0.16578600664712309</v>
+      </c>
+      <c r="Q56">
+        <f>AVERAGE(Q46:Q55)</f>
         <v>0</v>
       </c>
     </row>
@@ -2619,7 +2883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2631,7 +2895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result/MT_10.xlsx
+++ b/Result/MT_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MT_10" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>thread_id</t>
   </si>
@@ -437,9 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2879,12 +2879,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.29942611776530126</v>
+      </c>
+      <c r="D2">
+        <v>7.6170088617514411</v>
+      </c>
+      <c r="E2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.29159046623646678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>7.9018985060553604E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.347690954728477</v>
+      </c>
+      <c r="D3">
+        <v>3.9799497484264874E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.063595560468899E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.12727922061357855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>8.0752708932889869E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.39003717771515062</v>
+      </c>
+      <c r="D4">
+        <v>7.6107581751097513</v>
+      </c>
+      <c r="E4">
+        <v>4.5122056690714119E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.16578600664712309</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Result/MT_10.xlsx
+++ b/Result/MT_10.xlsx
@@ -2882,7 +2882,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2912,19 +2912,24 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1.0999999999999999E-2</v>
+        <f>1/0.011</f>
+        <v>90.909090909090921</v>
       </c>
       <c r="C2">
-        <v>0.29942611776530126</v>
+        <f>1/0.299426117765301</f>
+        <v>3.3397220237942955</v>
       </c>
       <c r="D2">
-        <v>7.6170088617514411</v>
+        <f>1/7.61700886175144</f>
+        <v>0.13128513018036084</v>
       </c>
       <c r="E2">
-        <v>1.4E-2</v>
+        <f>1/0.014</f>
+        <v>71.428571428571431</v>
       </c>
       <c r="F2">
-        <v>0.29159046623646678</v>
+        <f>1/0.291590466236467</f>
+        <v>3.4294674064859314</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2932,19 +2937,24 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>7.9018985060553604E-2</v>
+        <f>1/0.0790189850605536</f>
+        <v>12.655186588813852</v>
       </c>
       <c r="C3">
-        <v>0.347690954728477</v>
+        <f>1/0.347690954728477</f>
+        <v>2.8761173864328224</v>
       </c>
       <c r="D3">
-        <v>3.9799497484264874E-2</v>
+        <f>1/0.0397994974842649</f>
+        <v>25.125945381480236</v>
       </c>
       <c r="E3">
-        <v>5.063595560468899E-2</v>
+        <f>1/0.050635955604689</f>
+        <v>19.748812638333973</v>
       </c>
       <c r="F3">
-        <v>0.12727922061357855</v>
+        <f>1/0.127279220613579</f>
+        <v>7.8567420131838341</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2952,23 +2962,29 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>8.0752708932889869E-2</v>
+        <f>1/0.0807527089328899</f>
+        <v>12.383485498066165</v>
       </c>
       <c r="C4">
-        <v>0.39003717771515062</v>
+        <f>1/0.390037177715151</f>
+        <v>2.5638581579787565</v>
       </c>
       <c r="D4">
-        <v>7.6107581751097513</v>
+        <f>1/7.61075817510975</f>
+        <v>0.13139295415670982</v>
       </c>
       <c r="E4">
-        <v>4.5122056690714119E-2</v>
+        <f>1/0.0451220566907141</f>
+        <v>22.162110358896722</v>
       </c>
       <c r="F4">
-        <v>0.16578600664712309</v>
+        <f>1/0.165786006647123</f>
+        <v>6.031872171989213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
